--- a/data/PatentSearch/Espacenet/Polymer_years.xlsx
+++ b/data/PatentSearch/Espacenet/Polymer_years.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Seminar\DataDrivenForesight\data\PatentSearch\Espacenet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DataDrivenForesight\data\PatentSearch\Espacenet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCCE5B-C6BB-4246-8938-C75EE22A1043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5765FA9-0BC6-41C3-94E6-28CC13DD4251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,12 +77,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,124 +361,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection sqref="A1:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>1936</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1958</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1960</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1961</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B25" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2008</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B30" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B31" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>2012</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B33" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B34" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>2014</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B35" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>2015</v>
       </c>
-      <c r="B5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B36" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>2016</v>
       </c>
-      <c r="B6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B37" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>2017</v>
       </c>
-      <c r="B7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B38" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>2018</v>
       </c>
-      <c r="B8">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B39" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>2019</v>
       </c>
-      <c r="B9">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B40" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>2020</v>
       </c>
-      <c r="B10">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B41" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>2021</v>
       </c>
-      <c r="B11">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B42" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>2022</v>
       </c>
-      <c r="B12">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B43" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>2023</v>
       </c>
-      <c r="B13">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B44" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>2024</v>
       </c>
-      <c r="B14">
-        <v>198</v>
+      <c r="B45" s="1">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
